--- a/reference/Core6ResourcesTable20240127.xlsx
+++ b/reference/Core6ResourcesTable20240127.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592B033-41AD-3B49-BF21-66282B425BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C5E4A-7AE3-3D4A-8D7F-26883968D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="dosageInstructionTable" sheetId="7" r:id="rId5"/>
     <sheet name="Encounter" sheetId="10" r:id="rId6"/>
     <sheet name="BundleTable" sheetId="13" r:id="rId7"/>
+    <sheet name="修正履歴" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="2">MedicationRequestTable!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3287" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="918">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -8467,6 +8468,9 @@
   <si>
     <t>http://jpfhir.jp/fhir/core/CodeSystem/route-codes</t>
     <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>MedicationRequestTable</t>
   </si>
 </sst>
 </file>
@@ -10039,7 +10043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -11263,6 +11267,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -16538,8 +16545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="181" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18194,7 +18201,7 @@
         <v>345</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
@@ -20904,7 +20911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8041F143-9745-0F47-AF52-83FBDDF6384B}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -24594,4 +24601,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BBA26-B8C0-474F-AB41-4AA87BC23948}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="408">
+        <v>45319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>